--- a/timings.xlsx
+++ b/timings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\olt-first-steps-with-python-for-spreadsheet-users\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EA60EC-B8DC-42A4-BE30-B638E51499BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C569BB0-8F2F-4FCA-AB87-BE2506B62758}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="14586" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25560" yWindow="-913" windowWidth="8520" windowHeight="4786" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Section</t>
   </si>
@@ -48,6 +48,27 @@
   </si>
   <si>
     <t>Conclusion</t>
+  </si>
+  <si>
+    <t>up-and-running</t>
+  </si>
+  <si>
+    <t>working-with-tabular-data</t>
+  </si>
+  <si>
+    <t>data-analysis</t>
+  </si>
+  <si>
+    <t>data-viz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To-do's: </t>
+  </si>
+  <si>
+    <t>Export to Excel</t>
+  </si>
+  <si>
+    <t>Case study</t>
   </si>
 </sst>
 </file>
@@ -103,8 +124,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{36DDE1B7-B235-4BF3-B282-8C1D71A3586A}" name="Table1" displayName="Table1" ref="A1:C4" totalsRowShown="0">
-  <autoFilter ref="A1:C4" xr:uid="{660768F0-E897-4A21-9C5A-89A74C0C657E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{36DDE1B7-B235-4BF3-B282-8C1D71A3586A}" name="Table1" displayName="Table1" ref="A1:C8" totalsRowShown="0">
+  <autoFilter ref="A1:C8" xr:uid="{660768F0-E897-4A21-9C5A-89A74C0C657E}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{042FFE1B-2D5A-4F3C-9B6B-08B08A8349CD}" name="Section"/>
     <tableColumn id="2" xr3:uid="{E4E3B018-7F35-4425-90E5-F253C5602478}" name="Description"/>
@@ -377,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -388,7 +409,7 @@
     <col min="2" max="2" width="11.8203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -399,7 +420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -409,16 +430,75 @@
       <c r="C2">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A7">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="C7">
         <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="F12">
+        <f>7/9</f>
+        <v>0.77777777777777779</v>
       </c>
     </row>
   </sheetData>
